--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="13940" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="138">
   <si>
     <t>Week</t>
   </si>
@@ -400,15 +400,9 @@
     <t>Midterm study</t>
   </si>
   <si>
-    <t>Flex lab</t>
-  </si>
-  <si>
     <t>Mixed Design ANOVAs</t>
   </si>
   <si>
-    <t>flex lab</t>
-  </si>
-  <si>
     <t>Midterm Review</t>
   </si>
   <si>
@@ -452,6 +446,33 @@
   </si>
   <si>
     <t>[Chpt 12](https://crumplab.github.io/statistics/thinking-about-answering-questions-with-data.html)</t>
+  </si>
+  <si>
+    <t>[8. T-tests 2](https://crumplab.github.io/statisticsLab/lab-7-t-test-independent-sample.html)</t>
+  </si>
+  <si>
+    <t>[9. One-way ANOVA](https://crumplab.github.io/statisticsLab/lab-8-one-way-anova.html)</t>
+  </si>
+  <si>
+    <t>[10. RM ANOVA](https://crumplab.github.io/statisticsLab/lab-9-repeated-measures-anova.html)</t>
+  </si>
+  <si>
+    <t>[11. Factorial ANOVA](https://crumplab.github.io/statisticsLab/lab-10-factorial-anova.html)</t>
+  </si>
+  <si>
+    <t>[12. Mixed ANOVA](https://crumplab.github.io/statisticsLab/lab-11-mixed-factorial-anova.html)</t>
+  </si>
+  <si>
+    <t>[Factorial ANOVA II](https://crumplab.github.io/psyc3400/Presentations/9a_factorialANOVA.html#1)</t>
+  </si>
+  <si>
+    <t>[Factorial ANOVA III](https://crumplab.github.io/psyc3400/Presentations/9b_factorialANOVA.html#1)</t>
+  </si>
+  <si>
+    <t>[Data Simulation](https://crumplab.github.io/psyc3400/Presentations/10a_datasim.html#1)</t>
+  </si>
+  <si>
+    <t>Flex</t>
   </si>
 </sst>
 </file>
@@ -788,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -811,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -845,7 +866,7 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -859,7 +880,7 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -884,7 +905,7 @@
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -898,7 +919,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -920,7 +941,7 @@
         <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>12</v>
@@ -937,7 +958,7 @@
         <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
@@ -951,7 +972,7 @@
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -967,7 +988,7 @@
         <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -992,7 +1013,7 @@
         <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
@@ -1006,7 +1027,7 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>19</v>
@@ -1031,7 +1052,7 @@
         <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -1045,7 +1066,7 @@
         <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>22</v>
@@ -1070,7 +1091,7 @@
         <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
@@ -1084,7 +1105,7 @@
         <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>25</v>
@@ -1109,10 +1130,10 @@
         <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>111</v>
@@ -1123,7 +1144,7 @@
         <v>66</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>27</v>
@@ -1156,13 +1177,13 @@
         <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -1170,7 +1191,7 @@
         <v>96</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -1181,13 +1202,13 @@
         <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -1195,21 +1216,21 @@
         <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>97</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -1220,13 +1241,13 @@
         <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -1234,21 +1255,21 @@
         <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>98</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -1259,13 +1280,13 @@
         <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -1273,13 +1294,13 @@
         <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1314,18 +1335,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -1336,21 +1357,21 @@
         <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>102</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -1361,7 +1382,7 @@
         <v>45</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1374,16 +1395,16 @@
       <c r="D46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F46" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>103</v>
       </c>
-      <c r="G47" t="s">
-        <v>48</v>
+      <c r="G47" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1394,7 +1415,7 @@
         <v>49</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -14,10 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Lectures" localSheetId="0">Sheet1!$A$1:$F$50</definedName>
     <definedName name="Lectures" localSheetId="1">'Sheet1 (2)'!$A$1:$E$50</definedName>
+    <definedName name="Lectures" localSheetId="2">'Sheet1 (3)'!$A$1:$F$50</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -55,11 +57,22 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" name="Lectures2" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/mattcrump/Dropbox/Courses/Statistics/Spring 2019/Lectures.csv">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="140">
   <si>
     <t>Week</t>
   </si>
@@ -473,6 +486,12 @@
   </si>
   <si>
     <t>Flex</t>
+  </si>
+  <si>
+    <t>Missed Class due to snow</t>
+  </si>
+  <si>
+    <t>flex</t>
   </si>
 </sst>
 </file>
@@ -542,6 +561,10 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Lectures" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Lectures" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -809,15 +832,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="35" style="1" customWidth="1"/>
     <col min="4" max="4" width="41.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="42.33203125" style="1" customWidth="1"/>
@@ -831,7 +854,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -851,6 +874,7 @@
       <c r="B2" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -865,7 +889,7 @@
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -879,7 +903,7 @@
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -904,7 +928,7 @@
       <c r="B6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -918,7 +942,7 @@
       <c r="B7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>117</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -940,7 +964,7 @@
       <c r="B9" t="s">
         <v>83</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -957,7 +981,7 @@
       <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -987,7 +1011,7 @@
       <c r="B13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1012,7 +1036,7 @@
       <c r="B15" t="s">
         <v>59</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1026,7 +1050,7 @@
       <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1051,11 +1075,11 @@
       <c r="B18" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>109</v>
@@ -1065,11 +1089,11 @@
       <c r="B19" t="s">
         <v>62</v>
       </c>
-      <c r="C19" t="s">
-        <v>121</v>
+      <c r="C19" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>110</v>
@@ -1090,11 +1114,11 @@
       <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>110</v>
@@ -1104,11 +1128,11 @@
       <c r="B22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>111</v>
@@ -1129,22 +1153,25 @@
       <c r="B24" t="s">
         <v>65</v>
       </c>
-      <c r="C24" t="s">
-        <v>128</v>
+      <c r="C24" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>114</v>
+      <c r="C25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>27</v>
@@ -1165,8 +1192,8 @@
       <c r="B27" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>28</v>
+      <c r="D27" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>27</v>
@@ -1176,11 +1203,8 @@
       <c r="B28" t="s">
         <v>68</v>
       </c>
-      <c r="C28" t="s">
-        <v>122</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>129</v>
@@ -1201,11 +1225,11 @@
       <c r="B30" t="s">
         <v>69</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>129</v>
@@ -1215,11 +1239,11 @@
       <c r="B31" t="s">
         <v>70</v>
       </c>
-      <c r="C31" t="s">
-        <v>123</v>
+      <c r="C31" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>130</v>
@@ -1240,11 +1264,11 @@
       <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>130</v>
@@ -1254,11 +1278,11 @@
       <c r="B34" t="s">
         <v>72</v>
       </c>
-      <c r="C34" t="s">
-        <v>124</v>
+      <c r="C34" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>131</v>
@@ -1279,11 +1303,11 @@
       <c r="B36" t="s">
         <v>73</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>131</v>
@@ -1293,14 +1317,14 @@
       <c r="B37" t="s">
         <v>74</v>
       </c>
-      <c r="C37" t="s">
-        <v>125</v>
+      <c r="C37" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1339,11 +1363,11 @@
       <c r="B42" t="s">
         <v>77</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>132</v>
@@ -1356,14 +1380,14 @@
       <c r="B43" t="s">
         <v>78</v>
       </c>
-      <c r="C43" t="s">
-        <v>126</v>
+      <c r="C43" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="48" x14ac:dyDescent="0.2">
@@ -1378,14 +1402,17 @@
       <c r="B45" t="s">
         <v>79</v>
       </c>
+      <c r="C45" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D45" s="1" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>14</v>
       </c>
@@ -1393,10 +1420,10 @@
         <v>80</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="64" x14ac:dyDescent="0.2">
@@ -1407,15 +1434,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>81</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
@@ -1423,7 +1450,10 @@
         <v>82</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="F49"/>
     </row>
@@ -1966,4 +1996,636 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D50" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="141">
   <si>
     <t>Week</t>
   </si>
@@ -492,6 +492,9 @@
   </si>
   <si>
     <t>flex</t>
+  </si>
+  <si>
+    <t>[Power and Effect-size](https://crumplab.github.io/psyc3400/Presentations/6d_power.html#1)</t>
   </si>
 </sst>
 </file>
@@ -832,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,7 +1174,7 @@
         <v>128</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>27</v>

--- a/LectureSpring2019.xlsx
+++ b/LectureSpring2019.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="143">
   <si>
     <t>Week</t>
   </si>
@@ -495,6 +495,12 @@
   </si>
   <si>
     <t>[Power and Effect-size](https://crumplab.github.io/psyc3400/Presentations/6d_power.html#1)</t>
+  </si>
+  <si>
+    <t>M May 20</t>
+  </si>
+  <si>
+    <t>M May 20 10:30AM - 12:30 PM</t>
   </si>
 </sst>
 </file>
@@ -835,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1406,10 +1412,10 @@
         <v>79</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>133</v>
@@ -1461,6 +1467,12 @@
       <c r="F49"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="D50" s="1" t="s">
         <v>51</v>
       </c>
